--- a/hardware/BOM.xlsx
+++ b/hardware/BOM.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cflee\Documents\GitHub\FROST\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9801F3E-25C8-4D7A-B84D-2670C8A66A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0927EC30-936E-4A62-8766-94544C42332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14970" yWindow="0" windowWidth="13935" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="720" windowWidth="14610" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="248">
   <si>
     <t>C1,C2,C4</t>
   </si>
@@ -36,9 +48,6 @@
     <t>399-1168-1-ND</t>
   </si>
   <si>
-    <t>C5,C15-C16</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -63,9 +72,6 @@
     <t>10K</t>
   </si>
   <si>
-    <t>R3,R12,R13,R18,R20,R25-R28,R32</t>
-  </si>
-  <si>
     <t>68K</t>
   </si>
   <si>
@@ -135,9 +141,6 @@
     <t>R31</t>
   </si>
   <si>
-    <t>R7,R14-R16,R30,R33</t>
-  </si>
-  <si>
     <t>IC1,IC3,IC4</t>
   </si>
   <si>
@@ -174,15 +177,9 @@
     <t>311-1365-1-ND</t>
   </si>
   <si>
-    <t>C3,C6-C11,C13-C14,C17-C19</t>
-  </si>
-  <si>
     <t>TVS diode</t>
   </si>
   <si>
-    <t xml:space="preserve"> MF-MSMF050-2CT-ND</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -321,18 +318,12 @@
     <t>3M15451-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">  S9169-ND</t>
-  </si>
-  <si>
     <t>SBH11</t>
   </si>
   <si>
     <t>10POS 2.54mm</t>
   </si>
   <si>
-    <t xml:space="preserve"> 455-1708-ND</t>
-  </si>
-  <si>
     <t>B6B</t>
   </si>
   <si>
@@ -342,27 +333,15 @@
     <t>cP1-3533NG-ND</t>
   </si>
   <si>
-    <t xml:space="preserve"> 311-10.0KHRCT-ND</t>
-  </si>
-  <si>
     <t>MCT0603-68.0K-CFCT-ND</t>
   </si>
   <si>
     <t>541-2.49KSCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve"> 749-1661-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	MCT0603-1.00K-CFCT-ND</t>
-  </si>
-  <si>
     <t xml:space="preserve">	ESD5B5.0ST1GOSCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve"> A130081CT-ND</t>
-  </si>
-  <si>
     <t>541-2797-1-ND</t>
   </si>
   <si>
@@ -381,15 +360,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>JLCPCB Part #</t>
-  </si>
-  <si>
-    <t>DigiKey Part #</t>
-  </si>
-  <si>
-    <t>Manufacturer Part #</t>
-  </si>
-  <si>
     <t>T491A106K010AT</t>
   </si>
   <si>
@@ -580,6 +550,237 @@
   </si>
   <si>
     <t>C7497904</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>ManufacturerPartN</t>
+  </si>
+  <si>
+    <t>DigiKeyPartN</t>
+  </si>
+  <si>
+    <t>MouserPartN</t>
+  </si>
+  <si>
+    <t>JLCPCBPartN</t>
+  </si>
+  <si>
+    <t>S9169-ND</t>
+  </si>
+  <si>
+    <t>80-T491A106K010</t>
+  </si>
+  <si>
+    <t>603-CC805KKX7R7BB105</t>
+  </si>
+  <si>
+    <t>80-C0805C104K3R7210</t>
+  </si>
+  <si>
+    <t>80-T491A475M010</t>
+  </si>
+  <si>
+    <t>531-N6S25T0N5033030</t>
+  </si>
+  <si>
+    <t>490-SJ1-3533NG</t>
+  </si>
+  <si>
+    <t>311-10.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>594-MCT06030C6802FP5</t>
+  </si>
+  <si>
+    <t>71-CRCW06032K49FKEAH</t>
+  </si>
+  <si>
+    <t>749-1661-1-ND</t>
+  </si>
+  <si>
+    <t>594-MCT06030C4993FP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	MCT0603-1.00K-CFCT-ND</t>
+  </si>
+  <si>
+    <t>594-MCT06030C1001FP5</t>
+  </si>
+  <si>
+    <t>863-ESD5B50ST1G</t>
+  </si>
+  <si>
+    <t>A130081CT-ND</t>
+  </si>
+  <si>
+    <t>279-CRGCQ0603J22R</t>
+  </si>
+  <si>
+    <t>71-RCS060320K0FKEA</t>
+  </si>
+  <si>
+    <t>667-ERA-3AEB512V</t>
+  </si>
+  <si>
+    <t>667-ERA-3AEB621V</t>
+  </si>
+  <si>
+    <t>229-ST-4ETA103</t>
+  </si>
+  <si>
+    <t>708-RNCP0603FTD100R</t>
+  </si>
+  <si>
+    <t>579-MCP6L02T-E/SN</t>
+  </si>
+  <si>
+    <t>998-MIC5365-1.8YD5TR</t>
+  </si>
+  <si>
+    <t>MF-MSMF050-2CT-ND</t>
+  </si>
+  <si>
+    <t>652-MF-MSMF050-2</t>
+  </si>
+  <si>
+    <t>652-MH2029-300Y</t>
+  </si>
+  <si>
+    <t>859-LTST-C171TBKT</t>
+  </si>
+  <si>
+    <t>859-LTST-C170KFKT</t>
+  </si>
+  <si>
+    <t>859-LTST-C171GKT</t>
+  </si>
+  <si>
+    <t>717-9B-16.000MAAE-B</t>
+  </si>
+  <si>
+    <t>556-ATMEGA32U4RC-AU</t>
+  </si>
+  <si>
+    <t>517-30306-6002HB</t>
+  </si>
+  <si>
+    <t>455-1708-ND</t>
+  </si>
+  <si>
+    <t>C3,C6,C7,C8,C9,C10,C11,C13,C14,C17,C18,C19</t>
+  </si>
+  <si>
+    <t>C5,C15,C16</t>
+  </si>
+  <si>
+    <t>R3,R12,R13,R18,R20,R25,R26,R27,R28,R32</t>
+  </si>
+  <si>
+    <t>R7,R14,R15,R16,R30,R33</t>
+  </si>
+  <si>
+    <t>C7171</t>
+  </si>
+  <si>
+    <t>C28323</t>
+  </si>
+  <si>
+    <t>C7950</t>
+  </si>
+  <si>
+    <t>C34499</t>
+  </si>
+  <si>
+    <t>C2296</t>
+  </si>
+  <si>
+    <t>C2297</t>
+  </si>
+  <si>
+    <t>C21190</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---</t>
+  </si>
+  <si>
+    <t>C28233</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>4.7u Tant missing -- either 10u Tant or 4.7u MLCC</t>
+  </si>
+  <si>
+    <t>C29823</t>
+  </si>
+  <si>
+    <t>C151169</t>
+  </si>
+  <si>
+    <t>Replacement is not a Basic component -- this was chosen since original component was out of stock</t>
+  </si>
+  <si>
+    <t>Different brand op amp -- see analysis</t>
+  </si>
+  <si>
+    <t>C2865541</t>
+  </si>
+  <si>
+    <t>C20617530</t>
+  </si>
+  <si>
+    <t>JLCAlternatives</t>
+  </si>
+  <si>
+    <t>Basic DNE. Will need to supply our own or redesign -- This is a through-hole component, so not worried.</t>
+  </si>
+  <si>
+    <t>C22940</t>
+  </si>
+  <si>
+    <t>C667226</t>
+  </si>
+  <si>
+    <t>C25804</t>
+  </si>
+  <si>
+    <t>C23345</t>
+  </si>
+  <si>
+    <t>C4184</t>
+  </si>
+  <si>
+    <t>C351637</t>
+  </si>
+  <si>
+    <t>C44854</t>
+  </si>
+  <si>
+    <t>C498173</t>
+  </si>
+  <si>
+    <t>C26230</t>
+  </si>
+  <si>
+    <t>C131337</t>
+  </si>
+  <si>
+    <t>C131342</t>
+  </si>
+  <si>
+    <t>C5665</t>
+  </si>
+  <si>
+    <t>C11214</t>
+  </si>
+  <si>
+    <t>Rear component</t>
   </si>
 </sst>
 </file>
@@ -612,6 +813,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -637,21 +839,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -698,19 +885,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -762,47 +936,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1084,760 +1323,1163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1206</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="15">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1206</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>150</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="15">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="15">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F12" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1206</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="F15" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F16" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>620</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="D18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>100</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="15">
+        <v>3</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="15">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1206</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>150</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="D23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="F23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H23" s="21" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="I23" s="3"/>
+      <c r="J23" s="28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="E24" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="F24" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="I24" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="15">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="F25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="I25" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="I26" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>22</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="F28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="F29" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="F31" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="15">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>620</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="F32" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="15">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="F33" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="15">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="15">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="F35" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="15">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>100</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="I36" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="16">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="F37" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>30</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>184</v>
+      <c r="I37" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J37" s="29" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/BOM.xlsx
+++ b/hardware/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cflee\Documents\GitHub\FROST\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0927EC30-936E-4A62-8766-94544C42332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F3F1BC-E411-40A6-870E-F3B27A598ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="720" windowWidth="14610" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="257">
   <si>
     <t>C1,C2,C4</t>
   </si>
@@ -330,9 +330,6 @@
     <t>6POS 2mm</t>
   </si>
   <si>
-    <t>cP1-3533NG-ND</t>
-  </si>
-  <si>
     <t>MCT0603-68.0K-CFCT-ND</t>
   </si>
   <si>
@@ -495,9 +492,6 @@
     <t>C2078045</t>
   </si>
   <si>
-    <t>C473296</t>
-  </si>
-  <si>
     <t>C473282</t>
   </si>
   <si>
@@ -781,6 +775,39 @@
   </si>
   <si>
     <t>Rear component</t>
+  </si>
+  <si>
+    <t>RC0603FR-07150RL</t>
+  </si>
+  <si>
+    <t>311-150HRTR-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603-RC0603FR-07150RL </t>
+  </si>
+  <si>
+    <t>C114608</t>
+  </si>
+  <si>
+    <t>C473240</t>
+  </si>
+  <si>
+    <t>C23186</t>
+  </si>
+  <si>
+    <t>C22808</t>
+  </si>
+  <si>
+    <t>C23231</t>
+  </si>
+  <si>
+    <t>C22775</t>
+  </si>
+  <si>
+    <t>C1015</t>
+  </si>
+  <si>
+    <t>Rear component. Ferrite beed not the same value.</t>
   </si>
 </sst>
 </file>
@@ -965,7 +992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1040,6 +1067,32 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1323,19 +1376,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
     <col min="3" max="3" width="3.5703125" style="18" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="24" bestFit="1" customWidth="1"/>
@@ -1346,39 +1399,39 @@
     <col min="10" max="10" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="27" t="s">
+      <c r="G1" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>175</v>
-      </c>
       <c r="I1" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1392,23 +1445,23 @@
         <v>1206</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
@@ -1422,28 +1475,28 @@
         <v>15</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C4" s="15">
         <v>12</v>
@@ -1452,28 +1505,28 @@
         <v>15</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C5" s="15">
         <v>3</v>
@@ -1482,25 +1535,25 @@
         <v>1206</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1520,19 +1573,19 @@
         <v>17</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>150</v>
       </c>
@@ -1546,28 +1599,30 @@
         <v>9</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="3"/>
+        <v>247</v>
+      </c>
+      <c r="G7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" t="s">
+        <v>252</v>
+      </c>
       <c r="J7" s="28" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C8" s="15">
         <v>10</v>
@@ -1576,23 +1631,23 @@
         <v>9</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1606,23 +1661,25 @@
         <v>9</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="I9" t="s">
+        <v>253</v>
+      </c>
       <c r="J9" s="28" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1636,23 +1693,23 @@
         <v>9</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1666,30 +1723,30 @@
         <v>9</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C12" s="15">
         <v>6</v>
@@ -1698,23 +1755,23 @@
         <v>9</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
@@ -1728,23 +1785,26 @@
         <v>49</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="I13" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="J13" s="28" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>22</v>
       </c>
@@ -1758,23 +1818,24 @@
         <v>9</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -1788,51 +1849,52 @@
         <v>9</v>
       </c>
       <c r="E15" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="33">
+        <v>2</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F16" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="15">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="28" t="s">
-        <v>247</v>
-      </c>
+      <c r="G16" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="J16" s="39"/>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -1848,22 +1910,22 @@
         <v>9</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1880,22 +1942,22 @@
         <v>31</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1912,20 +1974,22 @@
         <v>9</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="I19" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="I19" t="s">
+        <v>254</v>
+      </c>
       <c r="J19" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1942,22 +2006,22 @@
         <v>42</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1974,22 +2038,22 @@
         <v>39</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2006,22 +2070,22 @@
         <v>41</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2038,20 +2102,22 @@
         <v>15</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>51</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="I23" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="I23" t="s">
+        <v>255</v>
+      </c>
       <c r="J23" s="28" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2068,19 +2134,19 @@
         <v>15</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>60</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J24" s="28"/>
     </row>
@@ -2098,19 +2164,19 @@
         <v>15</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>61</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J25" s="28"/>
     </row>
@@ -2128,19 +2194,19 @@
         <v>15</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>57</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J26" s="28"/>
     </row>
@@ -2164,16 +2230,16 @@
         <v>82</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2190,22 +2256,22 @@
         <v>64</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>63</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2222,20 +2288,20 @@
         <v>77</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2252,22 +2318,22 @@
         <v>70</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2284,20 +2350,20 @@
         <v>74</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>73</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2314,22 +2380,22 @@
         <v>91</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>92</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2346,20 +2412,20 @@
         <v>80</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>81</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2376,20 +2442,20 @@
         <v>80</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>81</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2406,20 +2472,20 @@
         <v>95</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2436,20 +2502,20 @@
         <v>80</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>81</v>
       </c>
       <c r="G36" s="21"/>
       <c r="H36" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2466,20 +2532,20 @@
         <v>93</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G37" s="23"/>
       <c r="H37" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
